--- a/scripts/datageneration/data/Primary_Keys_filtered6.xlsx
+++ b/scripts/datageneration/data/Primary_Keys_filtered6.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://deutschewelle.sharepoint.com/teams/GR-GR-ReCo-KID2/Freigegebene Dokumente/General/03_Ongoing Work/03C_MS_Spot - ongoing/03Cc_Development/Key-Value Pairs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF1B6A40-570C-403D-8693-115F231A0EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29608768-7F94-4CA7-99A7-1F7C17B262FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-36640" yWindow="-3940" windowWidth="36260" windowHeight="21100" xr2:uid="{0ED01DE8-A235-1045-8C96-52557544134F}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Primary_Keys_filtered3" localSheetId="0">Sheet1!$A$1:$E$449</definedName>
+    <definedName name="Primary_Keys_filtered3" localSheetId="0">Sheet1!$A$1:$E$444</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -45,7 +45,7 @@
     <author>tc={E2969D84-E6E9-4942-AC13-25F68EFD174C}</author>
   </authors>
   <commentList>
-    <comment ref="A255" authorId="0" shapeId="0" xr:uid="{25103F2C-F406-434C-A7A3-127ECFFA7D4C}">
+    <comment ref="A252" authorId="0" shapeId="0" xr:uid="{25103F2C-F406-434C-A7A3-127ECFFA7D4C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
     Should be merged with sports club no.1214</t>
       </text>
     </comment>
-    <comment ref="E608" authorId="1" shapeId="0" xr:uid="{E2969D84-E6E9-4942-AC13-25F68EFD174C}">
+    <comment ref="E599" authorId="1" shapeId="0" xr:uid="{E2969D84-E6E9-4942-AC13-25F68EFD174C}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -88,7 +88,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="1249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="1229">
   <si>
     <t>index</t>
   </si>
@@ -267,7 +267,7 @@
     <t>amenity=grit_bin</t>
   </si>
   <si>
-    <t>parking spaces|parking spots|parking|parking area|Parking lots| parking garage| car park|parking zone|parking aisle|street side parking| parking space| parking spot| parking slot| parking place| parking stall|accessible parking space</t>
+    <t>parking spaces|parking spots|parking|parking area|Parking lots|parking zone|parking aisle|street side parking| parking space| parking spot| parking slot| parking place| parking stall|accessible parking space</t>
   </si>
   <si>
     <t>amenity=parking, amenity=parking, amenity=motorcycle_parking, amenity=parking_space, highway=service AND service=parking_aisle, parking=***ANY***, amenity=parking_space AND parking_space=disabled</t>
@@ -384,7 +384,7 @@
     <t>amenity=conference_centre, amenity=exhibition_centre, amenity=events_venue</t>
   </si>
   <si>
-    <t>fountain|spring|fount|jet|spray|well|cascade|water well|water point|water pump|water source|water faucet|water spigot</t>
+    <t>fountain|spring|fount|jet|spray|well|cascade|water well|water pump|water source|water faucet|water spigot</t>
   </si>
   <si>
     <t>amenity=fountain, man_made=water_well, man_made=water_tap</t>
@@ -546,7 +546,7 @@
     <t>amenity=dive_centre</t>
   </si>
   <si>
-    <t>cemetery|grave yard| burial ground| catacomb| memorial park| tomb|grave yard|mausoleum</t>
+    <t>cemetery|burial ground| catacomb| memorial park| tomb|grave yard|mausoleum</t>
   </si>
   <si>
     <t>amenity=grave_yard, amenity=crematorium, amenity=funeral_hall, amenity=place_of_mourning, landuse=cemetery, historic=tomb, cemetery=***ANY***</t>
@@ -570,10 +570,10 @@
     <t>amenity=marketplace</t>
   </si>
   <si>
-    <t>monastery| abbey| cloister</t>
-  </si>
-  <si>
-    <t>amenity=monastery, building=monastery, historic=monastery</t>
+    <t>cloister|presbytery|monastery|abbey|clergy house|home for priests</t>
+  </si>
+  <si>
+    <t>amenity=monastery, building=monastery, historic=monastery, building=presbytery</t>
   </si>
   <si>
     <t>Levee|Dyke|Dike|Floodbank|Stopbank</t>
@@ -624,13 +624,13 @@
     <t>barrier=handrail</t>
   </si>
   <si>
-    <t>kerb stone|kerb| pavement| sidewalk edge| edge</t>
+    <t>kerb stone|kerb|sidewalk edge|curb|kerb|low curb| raised curb|high curb|flushed curb|flush curb|rolled curb|gutter|curb ramp|pram ramp</t>
   </si>
   <si>
     <t>barrier=kerb</t>
   </si>
   <si>
-    <t>wall| dam</t>
+    <t>wall</t>
   </si>
   <si>
     <t>barrier=wall, barrier=retaining_wall</t>
@@ -666,7 +666,7 @@
     <t>barrier=cycle_barrier</t>
   </si>
   <si>
-    <t>gate|archway| door| fence| portal</t>
+    <t>gate|archway|door|portal</t>
   </si>
   <si>
     <t>barrier=gate, barrier=entrance</t>
@@ -690,7 +690,7 @@
     <t>barrier=toll_booth, highway=toll_gantry</t>
   </si>
   <si>
-    <t>turnstile| doorway| access gate| swing gate| revolving door</t>
+    <t>turnstile| doorway| access gate| swing gate| revolving door|full height turnstile</t>
   </si>
   <si>
     <t>barrier=turnstile</t>
@@ -726,7 +726,7 @@
     <t>building=houseboat</t>
   </si>
   <si>
-    <t>residential building|apartment building|home|residence|tenement|block of flats|residential dwelling|condominium|flat</t>
+    <t>residential building|apartment building|residence|tenement|block of flats|residential dwelling|condominium|flatresidential house|</t>
   </si>
   <si>
     <t>building=residential, building=semidetached_house, building=apartments, residential=apartments</t>
@@ -738,7 +738,7 @@
     <t>building=static_caravan, residential=trailer_park</t>
   </si>
   <si>
-    <t>terrace|row house|townhouse|terraced house|cluster house|town home|linked house|residential house|house|residence|detached house</t>
+    <t>terrace|row house|townhouse|terraced house|cluster house|home|linked house|house|detached house</t>
   </si>
   <si>
     <t>building=terrace, building=house, building=detached</t>
@@ -792,12 +792,6 @@
     <t>building=mosque</t>
   </si>
   <si>
-    <t>presbytery|monestary|abbey|clergy house|home for priests</t>
-  </si>
-  <si>
-    <t>building=presbytery</t>
-  </si>
-  <si>
     <t>religious building|religious center</t>
   </si>
   <si>
@@ -810,12 +804,6 @@
     <t>building=shrine, historic=wayside_shrine</t>
   </si>
   <si>
-    <t>synagogue|shul|jewish temple|jewish house of worship</t>
-  </si>
-  <si>
-    <t>building=synagogue</t>
-  </si>
-  <si>
     <t>temple|holy place</t>
   </si>
   <si>
@@ -918,12 +906,6 @@
     <t>building=carport</t>
   </si>
   <si>
-    <t>garage|garage building</t>
-  </si>
-  <si>
-    <t>building=garage, building=garages</t>
-  </si>
-  <si>
     <t>digester|biogas production</t>
   </si>
   <si>
@@ -1455,7 +1437,7 @@
     <t>rural area|farming area|cultivated land|farmland|Farmland|farm|agrarian region|agricultural land|cropland|countryside</t>
   </si>
   <si>
-    <t>landuse=farmland, landuse=farmland, landuse=orchard, landuse=farmyard, landuse=vineyard, landuse=allotments, landuse=greenhouse_horticulture, landuse=plant_nursery, building=farm, landuse=farm</t>
+    <t>landuse=farmland, landuse=farmland, landuse=orchard, landuse=farmyard, landuse=vineyard, landuse=allotments, landuse=greenhouse_horticulture, landuse=plant_nursery, building=farm, landuse=farm, place=farm</t>
   </si>
   <si>
     <t>woodlands|woodland|grove|forest|woods</t>
@@ -1650,12 +1632,6 @@
     <t>leisure=swimming_pool, leisure=swimming_area, sport=swimming</t>
   </si>
   <si>
-    <t>running track|cycling track|horse track|dog track</t>
-  </si>
-  <si>
-    <t>leisure=track</t>
-  </si>
-  <si>
     <t>water park</t>
   </si>
   <si>
@@ -1782,12 +1758,6 @@
     <t>man_made=watermill</t>
   </si>
   <si>
-    <t>water tower</t>
-  </si>
-  <si>
-    <t>man_made=water_tower, building=water_tower</t>
-  </si>
-  <si>
     <t>wildlife crossing</t>
   </si>
   <si>
@@ -2190,7 +2160,7 @@
     <t>railway=construction</t>
   </si>
   <si>
-    <t>rail|railroad tracks|Railway tracks|train tracks|train line|tracks</t>
+    <t>railroad tracks|Railway tracks|train tracks|train line|tracks</t>
   </si>
   <si>
     <t>railway=rail, railway=light_rail, railway=miniature, railway=narrow_gauge, railway=subway, railway=tram, railway=route</t>
@@ -2202,10 +2172,10 @@
     <t>railway=rail AND highspeed=yes</t>
   </si>
   <si>
-    <t>tram tracks|tram|subway|light rail|subway tracks|metro|Subway|underground|tube|rapid transit|monorail track</t>
-  </si>
-  <si>
-    <t>railway=subway, railway=tram, railway=light_rail, railway=monorail</t>
+    <t>tram tracks|tram|subway|light rail|subway tracks|metro|Subway|underground|tube|rapid transit</t>
+  </si>
+  <si>
+    <t>railway=subway, railway=tram, railway=light_rail</t>
   </si>
   <si>
     <t>railway bridge|railroad viaduct|train bridge|railroad bridge|trestle bridge</t>
@@ -2316,7 +2286,7 @@
     <t>shop=second_hand</t>
   </si>
   <si>
-    <t>beauty shop|spa|nail salon</t>
+    <t>beauty shop|nail salon</t>
   </si>
   <si>
     <t>shop=beauty</t>
@@ -2631,7 +2601,7 @@
     <t>tourism=zoo</t>
   </si>
   <si>
-    <t>canal|stream|river|channel</t>
+    <t>canal|stream|river|channelstream area|creek|estuary|brook|watercourse|surge</t>
   </si>
   <si>
     <t>water=river, water=canal, waterway=river, waterway=stream, waterway=canal</t>
@@ -2655,10 +2625,10 @@
     <t>water=lake, water=pond, landuse=pond</t>
   </si>
   <si>
-    <t>basin|reservoir|salt pond</t>
-  </si>
-  <si>
-    <t>water=basin, landuse=basin, landuse=reservoir, landuse=salt_pond, water=basin, water=reservoir, man_made=reservoir_covered</t>
+    <t>basin|reservoir|salt pond|water reservoir|wastewater basin</t>
+  </si>
+  <si>
+    <t>water=basin, landuse=basin, landuse=reservoir, landuse=salt_pond, water=basin, water=reservoir, man_made=reservoir_covered, water=wastewater</t>
   </si>
   <si>
     <t>lagoon</t>
@@ -2751,7 +2721,7 @@
     <t>leisure=slipway</t>
   </si>
   <si>
-    <t>monorail|single rail system|Monorail</t>
+    <t>monorail|single rail system|monorail track</t>
   </si>
   <si>
     <t>railway=monorail</t>
@@ -2835,7 +2805,7 @@
     <t>public_transport=platform AND subway=yes, public_transport=stop_position AND subway=yes, public_transport=station AND subway=yes, railway=subway_entrance</t>
   </si>
   <si>
-    <t>monorail| aerialway|light rail|monorail station|aerialway station|aerialway stopping location|light rail stopping location|monorail stopping location|light rail stop|light rail platform|light rail station|aerialway stop|aerialway platform|monorail platform|monorail stop</t>
+    <t>monorail station|aerialway station|aerialway stopping location|light rail stopping location|monorail stopping location|light rail stop|light rail platform|light rail station|aerialway stop|aerialway platform|monorail platform|monorail stop</t>
   </si>
   <si>
     <t>public_transport=station AND monorail=yes, public_transport=stop_position AND aerialway=yes, public_transport=stop_position AND light_rail=yes, public_transport=stop_position AND monorail=yes, public_transport=station AND light_rail=yes, public_transport=platform AND light_rail=yes, public_transport=platform AND aerialway=yes, public_transport=platform AND subway=yes, public_transport=platform AND monorail=yes</t>
@@ -2847,16 +2817,10 @@
     <t>amenity=ferry_terminal, public_transport=station AND ferry=yes, public_transport=stop_position AND ferry=yes, public_transport=platform AND ferry=yes</t>
   </si>
   <si>
-    <t>barrier|spike strip|wicket gate|sally port|stile|planter|bump gate|wire gate|full height turnstile|kissing gate|mororcycle barrier|railing|noise barrier|turnstile|drive through gate|</t>
-  </si>
-  <si>
-    <t>barrier=yes, barrier=***ANY***, barrier=fence AND fence_type=railing, barrier=wall AND wall=noise_barrier</t>
-  </si>
-  <si>
-    <t>curb|kerb|low curb| raised curb|high curb|flushed curb|flush curb|rolled curb|gutter|curb ramp|pram ramp</t>
-  </si>
-  <si>
-    <t>barrier=kerb AND kerb=***ANY***</t>
+    <t>spike strip|wicket gate|sally port|stile|bump gate|wire gate|kissing gate|mororcycle barrier|railing|noise barrier|drive through gate</t>
+  </si>
+  <si>
+    <t>barrier=yes, barrier=fence AND fence_type=railing, barrier=wall AND wall=noise_barrier</t>
   </si>
   <si>
     <t>Public Prosecutor's Office|attorney general, district attorney</t>
@@ -2919,7 +2883,7 @@
     <t>tourism=artwork AND artwork_type=graffiti, tourism=artwork AND artwork_type=mural</t>
   </si>
   <si>
-    <t>campsite|camping area|camp ground|camping|backpacking site|camp ground|camp pitch</t>
+    <t>campsite|camping area|camp ground|camping|backpacking site|camp pitch</t>
   </si>
   <si>
     <t>tourism=camp_site, tourism=camp_pitch</t>
@@ -2937,12 +2901,6 @@
     <t>natural=water AND water=river</t>
   </si>
   <si>
-    <t>Pond|lake</t>
-  </si>
-  <si>
-    <t>natural=water AND water=pond, natural=water AND water=lake</t>
-  </si>
-  <si>
     <t>Canal Area</t>
   </si>
   <si>
@@ -2955,12 +2913,6 @@
     <t>natural=water AND water=oxbow</t>
   </si>
   <si>
-    <t>Wastewater Basin|Basin|reservoir|water reservoir</t>
-  </si>
-  <si>
-    <t>natural=water AND water=wastewater, natural=water AND water=basin, natural=water AND water=reservoir</t>
-  </si>
-  <si>
     <t>Moat</t>
   </si>
   <si>
@@ -3429,7 +3381,7 @@
     <t>amenity=nightclub</t>
   </si>
   <si>
-    <t>place of worship|house of god|house of worship|temple|synagogue|shrine</t>
+    <t>place of worship|house of god|house of worship</t>
   </si>
   <si>
     <t>amenity=place_of_worship, building=cathedral, building=chapel, building=church, building=mosque, building=shrine, building=synagogue, building=temple</t>
@@ -3459,10 +3411,10 @@
     <t>amenity=place_of_worship AND religion=shinto</t>
   </si>
   <si>
-    <t>Jewish Synagogue</t>
-  </si>
-  <si>
-    <t>amenity=place_of_worship AND religion=jewish</t>
+    <t>Jewish Synagogue|synagogue|shul|jewish temple|jewish house of worship</t>
+  </si>
+  <si>
+    <t>amenity=place_of_worship AND religion=jewish, building=synagogue</t>
   </si>
   <si>
     <t>Taoist Temple</t>
@@ -3534,7 +3486,7 @@
     <t>Water Tank|cistern|water tower</t>
   </si>
   <si>
-    <t>man_made=storage_tank, content=water</t>
+    <t>man_made=storage_tank AND content=water, man_made=water_tower, building=water_tower</t>
   </si>
   <si>
     <t>Communication Mast|broadcast tower|communication antenna|cell phone tower|mobile phone mast|radio broadcast mast|radio tower|transmission tower|tv mast|tv tower|communication tower|cell tower|</t>
@@ -3561,12 +3513,6 @@
     <t>man_made=crane AND crane:type=***ANY***, man_made=gantry</t>
   </si>
   <si>
-    <t>farm</t>
-  </si>
-  <si>
-    <t>place=farm</t>
-  </si>
-  <si>
     <t>Postal Relay Box|post relay box</t>
   </si>
   <si>
@@ -3609,7 +3555,7 @@
     <t>man_made=antenna</t>
   </si>
   <si>
-    <t>Courtyard|court|yard</t>
+    <t>Courtyard|yard</t>
   </si>
   <si>
     <t>man_made=courtyard</t>
@@ -3747,16 +3693,10 @@
     <t>street_sign=destination_sign</t>
   </si>
   <si>
-    <t>destination, destination/ref, destination/symbol, distance</t>
-  </si>
-  <si>
     <t>Hiking route | walking route | outdoor sports | bicycle route</t>
   </si>
   <si>
     <t>route=hiking, route=bicyle, route=walking</t>
-  </si>
-  <si>
-    <t>name, ref_route, operator, network_foot, network/type, from, to, via</t>
   </si>
   <si>
     <t>public transport routes | bus route | tram route |metro route</t>
@@ -4237,10 +4177,10 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A255" dT="2024-01-16T10:20:48.18" personId="{8F04A861-FAA4-484B-A157-6F76A46E9E6B}" id="{25103F2C-F406-434C-A7A3-127ECFFA7D4C}">
+  <threadedComment ref="A252" dT="2024-01-16T10:20:48.18" personId="{8F04A861-FAA4-484B-A157-6F76A46E9E6B}" id="{25103F2C-F406-434C-A7A3-127ECFFA7D4C}">
     <text>Should be merged with sports club no.1214</text>
   </threadedComment>
-  <threadedComment ref="E608" dT="2024-02-12T09:54:29.45" personId="{DA85A7B7-BA6D-4DB0-A720-785584B4A8AC}" id="{E2969D84-E6E9-4942-AC13-25F68EFD174C}">
+  <threadedComment ref="E599" dT="2024-02-12T09:54:29.45" personId="{DA85A7B7-BA6D-4DB0-A720-785584B4A8AC}" id="{E2969D84-E6E9-4942-AC13-25F68EFD174C}" done="1">
     <text>why do we add them here? normally combinations should be id numbers</text>
   </threadedComment>
 </ThreadedComments>
@@ -4248,11 +4188,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E391F786-B0DC-574F-BA27-B454063FA60E}">
-  <dimension ref="A1:E621"/>
+  <dimension ref="A1:E612"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B625" sqref="B625"/>
+      <pane ySplit="1" topLeftCell="A577" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F612" sqref="F612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" customHeight="1"/>
@@ -5851,7 +5791,7 @@
     </row>
     <row r="115" spans="1:4" ht="15.95">
       <c r="A115" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>234</v>
@@ -5865,7 +5805,7 @@
     </row>
     <row r="116" spans="1:4" ht="15.95">
       <c r="A116" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>236</v>
@@ -5879,7 +5819,7 @@
     </row>
     <row r="117" spans="1:4" ht="15.95">
       <c r="A117" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>238</v>
@@ -5893,7 +5833,7 @@
     </row>
     <row r="118" spans="1:4" ht="15.95">
       <c r="A118" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>240</v>
@@ -5907,7 +5847,7 @@
     </row>
     <row r="119" spans="1:4" ht="15.95">
       <c r="A119" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>242</v>
@@ -5921,7 +5861,7 @@
     </row>
     <row r="120" spans="1:4" ht="15.95">
       <c r="A120" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>244</v>
@@ -5935,9 +5875,9 @@
     </row>
     <row r="121" spans="1:4" ht="15.95">
       <c r="A121" s="2">
-        <v>249</v>
-      </c>
-      <c r="B121" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C121" s="2" t="s">
@@ -5949,9 +5889,9 @@
     </row>
     <row r="122" spans="1:4" ht="15.95">
       <c r="A122" s="2">
-        <v>250</v>
-      </c>
-      <c r="B122" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C122" s="2" t="s">
@@ -5963,7 +5903,7 @@
     </row>
     <row r="123" spans="1:4" ht="15.95">
       <c r="A123" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>250</v>
@@ -5977,7 +5917,7 @@
     </row>
     <row r="124" spans="1:4" ht="15.95">
       <c r="A124" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>252</v>
@@ -5991,7 +5931,7 @@
     </row>
     <row r="125" spans="1:4" ht="15.95">
       <c r="A125" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>254</v>
@@ -6005,7 +5945,7 @@
     </row>
     <row r="126" spans="1:4" ht="15.95">
       <c r="A126" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>256</v>
@@ -6019,7 +5959,7 @@
     </row>
     <row r="127" spans="1:4" ht="15.95">
       <c r="A127" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>258</v>
@@ -6033,7 +5973,7 @@
     </row>
     <row r="128" spans="1:4" ht="15.95">
       <c r="A128" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>260</v>
@@ -6047,7 +5987,7 @@
     </row>
     <row r="129" spans="1:4" ht="15.95">
       <c r="A129" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>262</v>
@@ -6061,7 +6001,7 @@
     </row>
     <row r="130" spans="1:4" ht="15.95">
       <c r="A130" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B130" s="2" t="s">
         <v>264</v>
@@ -6075,7 +6015,7 @@
     </row>
     <row r="131" spans="1:4" ht="15.95">
       <c r="A131" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>266</v>
@@ -6089,7 +6029,7 @@
     </row>
     <row r="132" spans="1:4" ht="15.95">
       <c r="A132" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>268</v>
@@ -6103,7 +6043,7 @@
     </row>
     <row r="133" spans="1:4" ht="15.95">
       <c r="A133" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B133" s="2" t="s">
         <v>270</v>
@@ -6117,7 +6057,7 @@
     </row>
     <row r="134" spans="1:4" ht="15.95">
       <c r="A134" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>272</v>
@@ -6131,7 +6071,7 @@
     </row>
     <row r="135" spans="1:4" ht="15.95">
       <c r="A135" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>274</v>
@@ -6145,7 +6085,7 @@
     </row>
     <row r="136" spans="1:4" ht="15.95">
       <c r="A136" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>276</v>
@@ -6159,7 +6099,7 @@
     </row>
     <row r="137" spans="1:4" ht="15.95">
       <c r="A137" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>278</v>
@@ -6173,7 +6113,7 @@
     </row>
     <row r="138" spans="1:4" ht="15.95">
       <c r="A138" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>280</v>
@@ -6187,7 +6127,7 @@
     </row>
     <row r="139" spans="1:4" ht="15.95">
       <c r="A139" s="2">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>282</v>
@@ -6201,7 +6141,7 @@
     </row>
     <row r="140" spans="1:4" ht="15.95">
       <c r="A140" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>284</v>
@@ -6215,7 +6155,7 @@
     </row>
     <row r="141" spans="1:4" ht="15.95">
       <c r="A141" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>286</v>
@@ -6229,7 +6169,7 @@
     </row>
     <row r="142" spans="1:4" ht="15.95">
       <c r="A142" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>288</v>
@@ -6243,7 +6183,7 @@
     </row>
     <row r="143" spans="1:4" ht="15.95">
       <c r="A143" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>290</v>
@@ -6257,7 +6197,7 @@
     </row>
     <row r="144" spans="1:4" ht="15.95">
       <c r="A144" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>292</v>
@@ -6271,7 +6211,7 @@
     </row>
     <row r="145" spans="1:4" ht="15.95">
       <c r="A145" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>294</v>
@@ -6285,13 +6225,13 @@
     </row>
     <row r="146" spans="1:4" ht="15.95">
       <c r="A146" s="2">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>297</v>
@@ -6299,13 +6239,13 @@
     </row>
     <row r="147" spans="1:4" ht="15.95">
       <c r="A147" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B147" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>299</v>
@@ -6313,13 +6253,13 @@
     </row>
     <row r="148" spans="1:4" ht="15.95">
       <c r="A148" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>301</v>
@@ -6327,13 +6267,13 @@
     </row>
     <row r="149" spans="1:4" ht="15.95">
       <c r="A149" s="2">
-        <v>303</v>
+        <v>399</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>303</v>
@@ -6341,13 +6281,13 @@
     </row>
     <row r="150" spans="1:4" ht="15.95">
       <c r="A150" s="2">
-        <v>304</v>
+        <v>400</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>305</v>
@@ -6355,13 +6295,13 @@
     </row>
     <row r="151" spans="1:4" ht="15.95">
       <c r="A151" s="2">
-        <v>309</v>
+        <v>401</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>306</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>307</v>
@@ -6369,7 +6309,7 @@
     </row>
     <row r="152" spans="1:4" ht="15.95">
       <c r="A152" s="2">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="B152" s="2" t="s">
         <v>308</v>
@@ -6382,9 +6322,6 @@
       </c>
     </row>
     <row r="153" spans="1:4" ht="15.95">
-      <c r="A153" s="2">
-        <v>400</v>
-      </c>
       <c r="B153" s="2" t="s">
         <v>310</v>
       </c>
@@ -6397,7 +6334,7 @@
     </row>
     <row r="154" spans="1:4" ht="15.95">
       <c r="A154" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B154" s="2" t="s">
         <v>312</v>
@@ -6411,7 +6348,7 @@
     </row>
     <row r="155" spans="1:4" ht="15.95">
       <c r="A155" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B155" s="2" t="s">
         <v>314</v>
@@ -6424,6 +6361,9 @@
       </c>
     </row>
     <row r="156" spans="1:4" ht="15.95">
+      <c r="A156" s="2">
+        <v>405</v>
+      </c>
       <c r="B156" s="2" t="s">
         <v>316</v>
       </c>
@@ -6436,7 +6376,7 @@
     </row>
     <row r="157" spans="1:4" ht="15.95">
       <c r="A157" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B157" s="2" t="s">
         <v>318</v>
@@ -6450,7 +6390,7 @@
     </row>
     <row r="158" spans="1:4" ht="15.95">
       <c r="A158" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>320</v>
@@ -6463,9 +6403,6 @@
       </c>
     </row>
     <row r="159" spans="1:4" ht="15.95">
-      <c r="A159" s="2">
-        <v>405</v>
-      </c>
       <c r="B159" s="2" t="s">
         <v>322</v>
       </c>
@@ -6478,7 +6415,7 @@
     </row>
     <row r="160" spans="1:4" ht="15.95">
       <c r="A160" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>324</v>
@@ -6492,7 +6429,7 @@
     </row>
     <row r="161" spans="1:4" ht="15.95">
       <c r="A161" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>326</v>
@@ -6505,6 +6442,9 @@
       </c>
     </row>
     <row r="162" spans="1:4" ht="15.95">
+      <c r="A162" s="2">
+        <v>410</v>
+      </c>
       <c r="B162" s="2" t="s">
         <v>328</v>
       </c>
@@ -6517,7 +6457,7 @@
     </row>
     <row r="163" spans="1:4" ht="15.95">
       <c r="A163" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>330</v>
@@ -6531,7 +6471,7 @@
     </row>
     <row r="164" spans="1:4" ht="15.95">
       <c r="A164" s="2">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>332</v>
@@ -6545,7 +6485,7 @@
     </row>
     <row r="165" spans="1:4" ht="15.95">
       <c r="A165" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B165" s="2" t="s">
         <v>334</v>
@@ -6559,7 +6499,7 @@
     </row>
     <row r="166" spans="1:4" ht="15.95">
       <c r="A166" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>336</v>
@@ -6573,7 +6513,7 @@
     </row>
     <row r="167" spans="1:4" ht="15.95">
       <c r="A167" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>338</v>
@@ -6587,7 +6527,7 @@
     </row>
     <row r="168" spans="1:4" ht="15.95">
       <c r="A168" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>340</v>
@@ -6601,7 +6541,7 @@
     </row>
     <row r="169" spans="1:4" ht="15.95">
       <c r="A169" s="2">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>342</v>
@@ -6615,7 +6555,7 @@
     </row>
     <row r="170" spans="1:4" ht="15.95">
       <c r="A170" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>344</v>
@@ -6629,7 +6569,7 @@
     </row>
     <row r="171" spans="1:4" ht="15.95">
       <c r="A171" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>346</v>
@@ -6643,7 +6583,7 @@
     </row>
     <row r="172" spans="1:4" ht="15.95">
       <c r="A172" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>348</v>
@@ -6657,7 +6597,7 @@
     </row>
     <row r="173" spans="1:4" ht="15.95">
       <c r="A173" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B173" s="2" t="s">
         <v>350</v>
@@ -6671,7 +6611,7 @@
     </row>
     <row r="174" spans="1:4" ht="15.95">
       <c r="A174" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B174" s="2" t="s">
         <v>352</v>
@@ -6685,7 +6625,7 @@
     </row>
     <row r="175" spans="1:4" ht="15.95">
       <c r="A175" s="2">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>354</v>
@@ -6699,7 +6639,7 @@
     </row>
     <row r="176" spans="1:4" ht="15.95">
       <c r="A176" s="2">
-        <v>421</v>
+        <v>445</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>356</v>
@@ -6713,7 +6653,7 @@
     </row>
     <row r="177" spans="1:4" ht="15.95">
       <c r="A177" s="2">
-        <v>422</v>
+        <v>459</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>358</v>
@@ -6727,7 +6667,7 @@
     </row>
     <row r="178" spans="1:4" ht="15.95">
       <c r="A178" s="2">
-        <v>444</v>
+        <v>460</v>
       </c>
       <c r="B178" s="2" t="s">
         <v>360</v>
@@ -6741,7 +6681,7 @@
     </row>
     <row r="179" spans="1:4" ht="15.95">
       <c r="A179" s="2">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>362</v>
@@ -6755,7 +6695,7 @@
     </row>
     <row r="180" spans="1:4" ht="15.95">
       <c r="A180" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B180" s="2" t="s">
         <v>364</v>
@@ -6769,7 +6709,7 @@
     </row>
     <row r="181" spans="1:4" ht="15.95">
       <c r="A181" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B181" s="2" t="s">
         <v>366</v>
@@ -6782,14 +6722,11 @@
       </c>
     </row>
     <row r="182" spans="1:4" ht="15.95">
-      <c r="A182" s="2">
-        <v>461</v>
-      </c>
       <c r="B182" s="2" t="s">
         <v>368</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>369</v>
@@ -6797,7 +6734,7 @@
     </row>
     <row r="183" spans="1:4" ht="15.95">
       <c r="A183" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>370</v>
@@ -6811,7 +6748,7 @@
     </row>
     <row r="184" spans="1:4" ht="15.95">
       <c r="A184" s="2">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>372</v>
@@ -6824,6 +6761,9 @@
       </c>
     </row>
     <row r="185" spans="1:4" ht="15.95">
+      <c r="A185" s="2">
+        <v>472</v>
+      </c>
       <c r="B185" s="2" t="s">
         <v>374</v>
       </c>
@@ -6836,13 +6776,13 @@
     </row>
     <row r="186" spans="1:4" ht="15.95">
       <c r="A186" s="2">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>376</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>377</v>
@@ -6850,13 +6790,13 @@
     </row>
     <row r="187" spans="1:4" ht="15.95">
       <c r="A187" s="2">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>378</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>379</v>
@@ -6864,13 +6804,13 @@
     </row>
     <row r="188" spans="1:4" ht="15.95">
       <c r="A188" s="2">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>380</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>381</v>
@@ -6878,13 +6818,13 @@
     </row>
     <row r="189" spans="1:4" ht="15.95">
       <c r="A189" s="2">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>382</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>383</v>
@@ -6892,13 +6832,13 @@
     </row>
     <row r="190" spans="1:4" ht="15.95">
       <c r="A190" s="2">
-        <v>483</v>
+        <v>503</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>384</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>385</v>
@@ -6906,7 +6846,7 @@
     </row>
     <row r="191" spans="1:4" ht="15.95">
       <c r="A191" s="2">
-        <v>495</v>
+        <v>512</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>386</v>
@@ -6920,7 +6860,7 @@
     </row>
     <row r="192" spans="1:4" ht="15.95">
       <c r="A192" s="2">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>388</v>
@@ -6934,7 +6874,7 @@
     </row>
     <row r="193" spans="1:4" ht="15.95">
       <c r="A193" s="2">
-        <v>503</v>
+        <v>532</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>390</v>
@@ -6948,13 +6888,13 @@
     </row>
     <row r="194" spans="1:4" ht="15.95">
       <c r="A194" s="2">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>392</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>393</v>
@@ -6962,7 +6902,7 @@
     </row>
     <row r="195" spans="1:4" ht="15.95">
       <c r="A195" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>394</v>
@@ -6976,7 +6916,7 @@
     </row>
     <row r="196" spans="1:4" ht="15.95">
       <c r="A196" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>396</v>
@@ -6990,7 +6930,7 @@
     </row>
     <row r="197" spans="1:4" ht="15.95">
       <c r="A197" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>398</v>
@@ -7004,7 +6944,7 @@
     </row>
     <row r="198" spans="1:4" ht="15.95">
       <c r="A198" s="2">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>400</v>
@@ -7018,7 +6958,7 @@
     </row>
     <row r="199" spans="1:4" ht="15.95">
       <c r="A199" s="2">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>402</v>
@@ -7031,9 +6971,6 @@
       </c>
     </row>
     <row r="200" spans="1:4" ht="15.95">
-      <c r="A200" s="2">
-        <v>537</v>
-      </c>
       <c r="B200" s="2" t="s">
         <v>404</v>
       </c>
@@ -7046,7 +6983,7 @@
     </row>
     <row r="201" spans="1:4" ht="15.95">
       <c r="A201" s="2">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B201" s="2" t="s">
         <v>406</v>
@@ -7059,9 +6996,6 @@
       </c>
     </row>
     <row r="202" spans="1:4" ht="15.95">
-      <c r="A202" s="2">
-        <v>542</v>
-      </c>
       <c r="B202" s="2" t="s">
         <v>408</v>
       </c>
@@ -7073,6 +7007,9 @@
       </c>
     </row>
     <row r="203" spans="1:4" ht="15.95">
+      <c r="A203" s="2">
+        <v>544</v>
+      </c>
       <c r="B203" s="2" t="s">
         <v>410</v>
       </c>
@@ -7085,7 +7022,7 @@
     </row>
     <row r="204" spans="1:4" ht="15.95">
       <c r="A204" s="2">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B204" s="2" t="s">
         <v>412</v>
@@ -7098,6 +7035,9 @@
       </c>
     </row>
     <row r="205" spans="1:4" ht="15.95">
+      <c r="A205" s="2">
+        <v>547</v>
+      </c>
       <c r="B205" s="2" t="s">
         <v>414</v>
       </c>
@@ -7110,7 +7050,7 @@
     </row>
     <row r="206" spans="1:4" ht="15.95">
       <c r="A206" s="2">
-        <v>544</v>
+        <v>554</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>416</v>
@@ -7124,7 +7064,7 @@
     </row>
     <row r="207" spans="1:4" ht="15.95">
       <c r="A207" s="2">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B207" s="2" t="s">
         <v>418</v>
@@ -7138,7 +7078,7 @@
     </row>
     <row r="208" spans="1:4" ht="15.95">
       <c r="A208" s="2">
-        <v>547</v>
+        <v>560</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>420</v>
@@ -7152,7 +7092,7 @@
     </row>
     <row r="209" spans="1:4" ht="15.95">
       <c r="A209" s="2">
-        <v>554</v>
+        <v>566</v>
       </c>
       <c r="B209" s="2" t="s">
         <v>422</v>
@@ -7166,7 +7106,7 @@
     </row>
     <row r="210" spans="1:4" ht="15.95">
       <c r="A210" s="2">
-        <v>555</v>
+        <v>573</v>
       </c>
       <c r="B210" s="2" t="s">
         <v>424</v>
@@ -7180,7 +7120,7 @@
     </row>
     <row r="211" spans="1:4" ht="15.95">
       <c r="A211" s="2">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="B211" s="2" t="s">
         <v>426</v>
@@ -7194,7 +7134,7 @@
     </row>
     <row r="212" spans="1:4" ht="15.95">
       <c r="A212" s="2">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>428</v>
@@ -7208,7 +7148,7 @@
     </row>
     <row r="213" spans="1:4" ht="15.95">
       <c r="A213" s="2">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B213" s="2" t="s">
         <v>430</v>
@@ -7222,7 +7162,7 @@
     </row>
     <row r="214" spans="1:4" ht="15.95">
       <c r="A214" s="2">
-        <v>575</v>
+        <v>597</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>432</v>
@@ -7236,7 +7176,7 @@
     </row>
     <row r="215" spans="1:4" ht="15.95">
       <c r="A215" s="2">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="B215" s="2" t="s">
         <v>434</v>
@@ -7250,7 +7190,7 @@
     </row>
     <row r="216" spans="1:4" ht="15.95">
       <c r="A216" s="2">
-        <v>579</v>
+        <v>600</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>436</v>
@@ -7264,7 +7204,7 @@
     </row>
     <row r="217" spans="1:4" ht="15.95">
       <c r="A217" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B217" s="2" t="s">
         <v>438</v>
@@ -7278,7 +7218,7 @@
     </row>
     <row r="218" spans="1:4" ht="15.95">
       <c r="A218" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>440</v>
@@ -7292,7 +7232,7 @@
     </row>
     <row r="219" spans="1:4" ht="15.95">
       <c r="A219" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>442</v>
@@ -7306,7 +7246,7 @@
     </row>
     <row r="220" spans="1:4" ht="15.95">
       <c r="A220" s="2">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>444</v>
@@ -7320,7 +7260,7 @@
     </row>
     <row r="221" spans="1:4" ht="15.95">
       <c r="A221" s="2">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B221" s="2" t="s">
         <v>446</v>
@@ -7334,7 +7274,7 @@
     </row>
     <row r="222" spans="1:4" ht="15.95">
       <c r="A222" s="2">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="B222" s="2" t="s">
         <v>448</v>
@@ -7348,7 +7288,7 @@
     </row>
     <row r="223" spans="1:4" ht="15.95">
       <c r="A223" s="2">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>450</v>
@@ -7362,7 +7302,7 @@
     </row>
     <row r="224" spans="1:4" ht="15.95">
       <c r="A224" s="2">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>452</v>
@@ -7376,7 +7316,7 @@
     </row>
     <row r="225" spans="1:4" ht="15.95">
       <c r="A225" s="2">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B225" s="2" t="s">
         <v>454</v>
@@ -7390,7 +7330,7 @@
     </row>
     <row r="226" spans="1:4" ht="15.95">
       <c r="A226" s="2">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>456</v>
@@ -7404,7 +7344,7 @@
     </row>
     <row r="227" spans="1:4" ht="15.95">
       <c r="A227" s="2">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>458</v>
@@ -7418,7 +7358,7 @@
     </row>
     <row r="228" spans="1:4" ht="15.95">
       <c r="A228" s="2">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>460</v>
@@ -7432,7 +7372,7 @@
     </row>
     <row r="229" spans="1:4" ht="15.95">
       <c r="A229" s="2">
-        <v>617</v>
+        <v>626</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>462</v>
@@ -7446,7 +7386,7 @@
     </row>
     <row r="230" spans="1:4" ht="15.95">
       <c r="A230" s="2">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>464</v>
@@ -7460,7 +7400,7 @@
     </row>
     <row r="231" spans="1:4" ht="15.95">
       <c r="A231" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>466</v>
@@ -7473,22 +7413,16 @@
       </c>
     </row>
     <row r="232" spans="1:4" ht="15.95">
-      <c r="A232" s="2">
-        <v>626</v>
-      </c>
       <c r="B232" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C232" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D232" s="2" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="15.95">
       <c r="A233" s="2">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B233" s="2" t="s">
         <v>470</v>
@@ -7502,7 +7436,7 @@
     </row>
     <row r="234" spans="1:4" ht="15.95">
       <c r="A234" s="2">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>472</v>
@@ -7515,16 +7449,22 @@
       </c>
     </row>
     <row r="235" spans="1:4" ht="15.95">
+      <c r="A235" s="2">
+        <v>633</v>
+      </c>
       <c r="B235" s="2" t="s">
         <v>474</v>
       </c>
+      <c r="C235" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D235" s="2" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="15.95">
       <c r="A236" s="2">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>476</v>
@@ -7538,7 +7478,7 @@
     </row>
     <row r="237" spans="1:4" ht="15.95">
       <c r="A237" s="2">
-        <v>631</v>
+        <v>639</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>478</v>
@@ -7552,7 +7492,7 @@
     </row>
     <row r="238" spans="1:4" ht="15.95">
       <c r="A238" s="2">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>480</v>
@@ -7566,7 +7506,7 @@
     </row>
     <row r="239" spans="1:4" ht="15.95">
       <c r="A239" s="2">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>482</v>
@@ -7580,7 +7520,7 @@
     </row>
     <row r="240" spans="1:4" ht="15.95">
       <c r="A240" s="2">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>484</v>
@@ -7594,7 +7534,7 @@
     </row>
     <row r="241" spans="1:4" ht="15.95">
       <c r="A241" s="2">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>486</v>
@@ -7608,7 +7548,7 @@
     </row>
     <row r="242" spans="1:4" ht="15.95">
       <c r="A242" s="2">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="B242" s="2" t="s">
         <v>488</v>
@@ -7622,7 +7562,7 @@
     </row>
     <row r="243" spans="1:4" ht="15.95">
       <c r="A243" s="2">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>490</v>
@@ -7636,7 +7576,7 @@
     </row>
     <row r="244" spans="1:4" ht="15.95">
       <c r="A244" s="2">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>492</v>
@@ -7650,7 +7590,7 @@
     </row>
     <row r="245" spans="1:4" ht="15.95">
       <c r="A245" s="2">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="B245" s="2" t="s">
         <v>494</v>
@@ -7664,7 +7604,7 @@
     </row>
     <row r="246" spans="1:4" ht="15.95">
       <c r="A246" s="2">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>496</v>
@@ -7678,7 +7618,7 @@
     </row>
     <row r="247" spans="1:4" ht="15.95">
       <c r="A247" s="2">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>498</v>
@@ -7692,7 +7632,7 @@
     </row>
     <row r="248" spans="1:4" ht="15.95">
       <c r="A248" s="2">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>500</v>
@@ -7706,7 +7646,7 @@
     </row>
     <row r="249" spans="1:4" ht="15.95">
       <c r="A249" s="2">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>502</v>
@@ -7720,7 +7660,7 @@
     </row>
     <row r="250" spans="1:4" ht="15.95">
       <c r="A250" s="2">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B250" s="2" t="s">
         <v>504</v>
@@ -7734,7 +7674,7 @@
     </row>
     <row r="251" spans="1:4" ht="15.95">
       <c r="A251" s="2">
-        <v>656</v>
+        <v>662</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>506</v>
@@ -7748,7 +7688,7 @@
     </row>
     <row r="252" spans="1:4" ht="15.95">
       <c r="A252" s="2">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>508</v>
@@ -7762,7 +7702,7 @@
     </row>
     <row r="253" spans="1:4" ht="15.95">
       <c r="A253" s="2">
-        <v>659</v>
+        <v>665</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>510</v>
@@ -7776,7 +7716,7 @@
     </row>
     <row r="254" spans="1:4" ht="15.95">
       <c r="A254" s="2">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>512</v>
@@ -7790,7 +7730,7 @@
     </row>
     <row r="255" spans="1:4" ht="15.95">
       <c r="A255" s="2">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>514</v>
@@ -7804,7 +7744,7 @@
     </row>
     <row r="256" spans="1:4" ht="15.95">
       <c r="A256" s="2">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B256" s="2" t="s">
         <v>516</v>
@@ -7818,7 +7758,7 @@
     </row>
     <row r="257" spans="1:4" ht="15.95">
       <c r="A257" s="2">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>518</v>
@@ -7832,7 +7772,7 @@
     </row>
     <row r="258" spans="1:4" ht="15.95">
       <c r="A258" s="2">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>520</v>
@@ -7846,7 +7786,7 @@
     </row>
     <row r="259" spans="1:4" ht="15.95">
       <c r="A259" s="2">
-        <v>670</v>
+        <v>688</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>522</v>
@@ -7860,7 +7800,7 @@
     </row>
     <row r="260" spans="1:4" ht="15.95">
       <c r="A260" s="2">
-        <v>674</v>
+        <v>693</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>524</v>
@@ -7874,7 +7814,7 @@
     </row>
     <row r="261" spans="1:4" ht="15.95">
       <c r="A261" s="2">
-        <v>677</v>
+        <v>694</v>
       </c>
       <c r="B261" s="2" t="s">
         <v>526</v>
@@ -7888,7 +7828,7 @@
     </row>
     <row r="262" spans="1:4" ht="15.95">
       <c r="A262" s="2">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>528</v>
@@ -7902,7 +7842,7 @@
     </row>
     <row r="263" spans="1:4" ht="15.95">
       <c r="A263" s="2">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B263" s="2" t="s">
         <v>530</v>
@@ -7916,7 +7856,7 @@
     </row>
     <row r="264" spans="1:4" ht="15.95">
       <c r="A264" s="2">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>532</v>
@@ -7930,7 +7870,7 @@
     </row>
     <row r="265" spans="1:4" ht="15.95">
       <c r="A265" s="2">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>534</v>
@@ -7944,7 +7884,7 @@
     </row>
     <row r="266" spans="1:4" ht="15.95">
       <c r="A266" s="2">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>536</v>
@@ -7957,9 +7897,6 @@
       </c>
     </row>
     <row r="267" spans="1:4" ht="15.95">
-      <c r="A267" s="2">
-        <v>698</v>
-      </c>
       <c r="B267" s="2" t="s">
         <v>538</v>
       </c>
@@ -7972,7 +7909,7 @@
     </row>
     <row r="268" spans="1:4" ht="15.95">
       <c r="A268" s="2">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>540</v>
@@ -7986,7 +7923,7 @@
     </row>
     <row r="269" spans="1:4" ht="15.95">
       <c r="A269" s="2">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>542</v>
@@ -8000,7 +7937,7 @@
     </row>
     <row r="270" spans="1:4" ht="15.95">
       <c r="A270" s="2">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>544</v>
@@ -8013,6 +7950,9 @@
       </c>
     </row>
     <row r="271" spans="1:4" ht="15.95">
+      <c r="A271" s="2">
+        <v>712</v>
+      </c>
       <c r="B271" s="2" t="s">
         <v>546</v>
       </c>
@@ -8025,7 +7965,7 @@
     </row>
     <row r="272" spans="1:4" ht="15.95">
       <c r="A272" s="2">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>548</v>
@@ -8039,7 +7979,7 @@
     </row>
     <row r="273" spans="1:4" ht="15.95">
       <c r="A273" s="2">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>550</v>
@@ -8053,7 +7993,7 @@
     </row>
     <row r="274" spans="1:4" ht="15.95">
       <c r="A274" s="2">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B274" s="2" t="s">
         <v>552</v>
@@ -8067,7 +8007,7 @@
     </row>
     <row r="275" spans="1:4" ht="15.95">
       <c r="A275" s="2">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="B275" s="2" t="s">
         <v>554</v>
@@ -8081,7 +8021,7 @@
     </row>
     <row r="276" spans="1:4" ht="15.95">
       <c r="A276" s="2">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>556</v>
@@ -8095,7 +8035,7 @@
     </row>
     <row r="277" spans="1:4" ht="15.95">
       <c r="A277" s="2">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="B277" s="2" t="s">
         <v>558</v>
@@ -8109,7 +8049,7 @@
     </row>
     <row r="278" spans="1:4" ht="15.95">
       <c r="A278" s="2">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B278" s="2" t="s">
         <v>560</v>
@@ -8123,7 +8063,7 @@
     </row>
     <row r="279" spans="1:4" ht="15.95">
       <c r="A279" s="2">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>562</v>
@@ -8137,7 +8077,7 @@
     </row>
     <row r="280" spans="1:4" ht="15.95">
       <c r="A280" s="2">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="B280" s="2" t="s">
         <v>564</v>
@@ -8151,7 +8091,7 @@
     </row>
     <row r="281" spans="1:4" ht="15.95">
       <c r="A281" s="2">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="B281" s="2" t="s">
         <v>566</v>
@@ -8164,9 +8104,6 @@
       </c>
     </row>
     <row r="282" spans="1:4" ht="15.95">
-      <c r="A282" s="2">
-        <v>726</v>
-      </c>
       <c r="B282" s="2" t="s">
         <v>568</v>
       </c>
@@ -8179,7 +8116,7 @@
     </row>
     <row r="283" spans="1:4" ht="15.95">
       <c r="A283" s="2">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="B283" s="2" t="s">
         <v>570</v>
@@ -8193,7 +8130,7 @@
     </row>
     <row r="284" spans="1:4" ht="15.95">
       <c r="A284" s="2">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>572</v>
@@ -8207,7 +8144,7 @@
     </row>
     <row r="285" spans="1:4" ht="15.95">
       <c r="A285" s="2">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>574</v>
@@ -8221,7 +8158,7 @@
     </row>
     <row r="286" spans="1:4" ht="15.95">
       <c r="A286" s="2">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>576</v>
@@ -8234,6 +8171,9 @@
       </c>
     </row>
     <row r="287" spans="1:4" ht="15.95">
+      <c r="A287" s="2">
+        <v>740</v>
+      </c>
       <c r="B287" s="2" t="s">
         <v>578</v>
       </c>
@@ -8246,7 +8186,7 @@
     </row>
     <row r="288" spans="1:4" ht="15.95">
       <c r="A288" s="2">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>580</v>
@@ -8260,7 +8200,7 @@
     </row>
     <row r="289" spans="1:4" ht="15.95">
       <c r="A289" s="2">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="B289" s="2" t="s">
         <v>582</v>
@@ -8274,7 +8214,7 @@
     </row>
     <row r="290" spans="1:4" ht="15.95">
       <c r="A290" s="2">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>584</v>
@@ -8288,7 +8228,7 @@
     </row>
     <row r="291" spans="1:4" ht="15.95">
       <c r="A291" s="2">
-        <v>738</v>
+        <v>758</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>586</v>
@@ -8302,7 +8242,7 @@
     </row>
     <row r="292" spans="1:4" ht="15.95">
       <c r="A292" s="2">
-        <v>740</v>
+        <v>759</v>
       </c>
       <c r="B292" s="2" t="s">
         <v>588</v>
@@ -8316,7 +8256,7 @@
     </row>
     <row r="293" spans="1:4" ht="15.95">
       <c r="A293" s="2">
-        <v>744</v>
+        <v>762</v>
       </c>
       <c r="B293" s="2" t="s">
         <v>590</v>
@@ -8330,7 +8270,7 @@
     </row>
     <row r="294" spans="1:4" ht="15.95">
       <c r="A294" s="2">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>592</v>
@@ -8344,7 +8284,7 @@
     </row>
     <row r="295" spans="1:4" ht="15.95">
       <c r="A295" s="2">
-        <v>753</v>
+        <v>764</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>594</v>
@@ -8358,7 +8298,7 @@
     </row>
     <row r="296" spans="1:4" ht="15.95">
       <c r="A296" s="2">
-        <v>758</v>
+        <v>769</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>596</v>
@@ -8372,7 +8312,7 @@
     </row>
     <row r="297" spans="1:4" ht="15.95">
       <c r="A297" s="2">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="B297" s="2" t="s">
         <v>598</v>
@@ -8386,7 +8326,7 @@
     </row>
     <row r="298" spans="1:4" ht="15.95">
       <c r="A298" s="2">
-        <v>762</v>
+        <v>776</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>600</v>
@@ -8400,7 +8340,7 @@
     </row>
     <row r="299" spans="1:4" ht="15.95">
       <c r="A299" s="2">
-        <v>763</v>
+        <v>777</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>602</v>
@@ -8414,7 +8354,7 @@
     </row>
     <row r="300" spans="1:4" ht="15.95">
       <c r="A300" s="2">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>604</v>
@@ -8428,7 +8368,7 @@
     </row>
     <row r="301" spans="1:4" ht="15.95">
       <c r="A301" s="2">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>606</v>
@@ -8442,7 +8382,7 @@
     </row>
     <row r="302" spans="1:4" ht="15.95">
       <c r="A302" s="2">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>608</v>
@@ -8456,7 +8396,7 @@
     </row>
     <row r="303" spans="1:4" ht="15.95">
       <c r="A303" s="2">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="B303" s="2" t="s">
         <v>610</v>
@@ -8470,7 +8410,7 @@
     </row>
     <row r="304" spans="1:4" ht="15.95">
       <c r="A304" s="2">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B304" s="2" t="s">
         <v>612</v>
@@ -8484,7 +8424,7 @@
     </row>
     <row r="305" spans="1:4" ht="15.95">
       <c r="A305" s="2">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>614</v>
@@ -8498,7 +8438,7 @@
     </row>
     <row r="306" spans="1:4" ht="15.95">
       <c r="A306" s="2">
-        <v>780</v>
+        <v>786</v>
       </c>
       <c r="B306" s="2" t="s">
         <v>616</v>
@@ -8512,7 +8452,7 @@
     </row>
     <row r="307" spans="1:4" ht="15.95">
       <c r="A307" s="2">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="B307" s="2" t="s">
         <v>618</v>
@@ -8526,7 +8466,7 @@
     </row>
     <row r="308" spans="1:4" ht="15.95">
       <c r="A308" s="2">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>620</v>
@@ -8540,7 +8480,7 @@
     </row>
     <row r="309" spans="1:4" ht="15.95">
       <c r="A309" s="2">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>622</v>
@@ -8554,7 +8494,7 @@
     </row>
     <row r="310" spans="1:4" ht="15.95">
       <c r="A310" s="2">
-        <v>785</v>
+        <v>797</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>624</v>
@@ -8568,7 +8508,7 @@
     </row>
     <row r="311" spans="1:4" ht="15.95">
       <c r="A311" s="2">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>626</v>
@@ -8582,7 +8522,7 @@
     </row>
     <row r="312" spans="1:4" ht="15.95">
       <c r="A312" s="2">
-        <v>788</v>
+        <v>803</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>628</v>
@@ -8596,7 +8536,7 @@
     </row>
     <row r="313" spans="1:4" ht="15.95">
       <c r="A313" s="2">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>630</v>
@@ -8610,7 +8550,7 @@
     </row>
     <row r="314" spans="1:4" ht="15.95">
       <c r="A314" s="2">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>632</v>
@@ -8624,7 +8564,7 @@
     </row>
     <row r="315" spans="1:4" ht="15.95">
       <c r="A315" s="2">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>634</v>
@@ -8638,7 +8578,7 @@
     </row>
     <row r="316" spans="1:4" ht="15.95">
       <c r="A316" s="2">
-        <v>798</v>
+        <v>807</v>
       </c>
       <c r="B316" s="2" t="s">
         <v>636</v>
@@ -8652,7 +8592,7 @@
     </row>
     <row r="317" spans="1:4" ht="15.95">
       <c r="A317" s="2">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B317" s="2" t="s">
         <v>638</v>
@@ -8666,7 +8606,7 @@
     </row>
     <row r="318" spans="1:4" ht="15.95">
       <c r="A318" s="2">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>640</v>
@@ -8680,7 +8620,7 @@
     </row>
     <row r="319" spans="1:4" ht="15.95">
       <c r="A319" s="2">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>642</v>
@@ -8694,7 +8634,7 @@
     </row>
     <row r="320" spans="1:4" ht="15.95">
       <c r="A320" s="2">
-        <v>806</v>
+        <v>813</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>644</v>
@@ -8708,7 +8648,7 @@
     </row>
     <row r="321" spans="1:4" ht="15.95">
       <c r="A321" s="2">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>646</v>
@@ -8722,7 +8662,7 @@
     </row>
     <row r="322" spans="1:4" ht="15.95">
       <c r="A322" s="2">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>648</v>
@@ -8736,7 +8676,7 @@
     </row>
     <row r="323" spans="1:4" ht="15.95">
       <c r="A323" s="2">
-        <v>810</v>
+        <v>821</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>650</v>
@@ -8750,7 +8690,7 @@
     </row>
     <row r="324" spans="1:4" ht="15.95">
       <c r="A324" s="2">
-        <v>811</v>
+        <v>822</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>652</v>
@@ -8764,7 +8704,7 @@
     </row>
     <row r="325" spans="1:4" ht="15.95">
       <c r="A325" s="2">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>654</v>
@@ -8778,7 +8718,7 @@
     </row>
     <row r="326" spans="1:4" ht="15.95">
       <c r="A326" s="2">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>656</v>
@@ -8792,7 +8732,7 @@
     </row>
     <row r="327" spans="1:4" ht="15.95">
       <c r="A327" s="2">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>658</v>
@@ -8806,7 +8746,7 @@
     </row>
     <row r="328" spans="1:4" ht="15.95">
       <c r="A328" s="2">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>660</v>
@@ -8820,7 +8760,7 @@
     </row>
     <row r="329" spans="1:4" ht="15.95">
       <c r="A329" s="2">
-        <v>822</v>
+        <v>830</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>662</v>
@@ -8834,7 +8774,7 @@
     </row>
     <row r="330" spans="1:4" ht="15.95">
       <c r="A330" s="2">
-        <v>823</v>
+        <v>835</v>
       </c>
       <c r="B330" s="2" t="s">
         <v>664</v>
@@ -8848,7 +8788,7 @@
     </row>
     <row r="331" spans="1:4" ht="15.95">
       <c r="A331" s="2">
-        <v>825</v>
+        <v>864</v>
       </c>
       <c r="B331" s="2" t="s">
         <v>666</v>
@@ -8862,7 +8802,7 @@
     </row>
     <row r="332" spans="1:4" ht="15.95">
       <c r="A332" s="2">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>668</v>
@@ -8876,7 +8816,7 @@
     </row>
     <row r="333" spans="1:4" ht="15.95">
       <c r="A333" s="2">
-        <v>828</v>
+        <v>867</v>
       </c>
       <c r="B333" s="2" t="s">
         <v>670</v>
@@ -8890,7 +8830,7 @@
     </row>
     <row r="334" spans="1:4" ht="15.95">
       <c r="A334" s="2">
-        <v>830</v>
+        <v>869</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>672</v>
@@ -8904,7 +8844,7 @@
     </row>
     <row r="335" spans="1:4" ht="15.95">
       <c r="A335" s="2">
-        <v>835</v>
+        <v>873</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>674</v>
@@ -8918,7 +8858,7 @@
     </row>
     <row r="336" spans="1:4" ht="15.95">
       <c r="A336" s="2">
-        <v>864</v>
+        <v>881</v>
       </c>
       <c r="B336" s="2" t="s">
         <v>676</v>
@@ -8932,7 +8872,7 @@
     </row>
     <row r="337" spans="1:4" ht="15.95">
       <c r="A337" s="2">
-        <v>865</v>
+        <v>885</v>
       </c>
       <c r="B337" s="2" t="s">
         <v>678</v>
@@ -8946,7 +8886,7 @@
     </row>
     <row r="338" spans="1:4" ht="15.95">
       <c r="A338" s="2">
-        <v>867</v>
+        <v>888</v>
       </c>
       <c r="B338" s="2" t="s">
         <v>680</v>
@@ -8960,7 +8900,7 @@
     </row>
     <row r="339" spans="1:4" ht="15.95">
       <c r="A339" s="2">
-        <v>869</v>
+        <v>891</v>
       </c>
       <c r="B339" s="2" t="s">
         <v>682</v>
@@ -8974,7 +8914,7 @@
     </row>
     <row r="340" spans="1:4" ht="15.95">
       <c r="A340" s="2">
-        <v>873</v>
+        <v>892</v>
       </c>
       <c r="B340" s="2" t="s">
         <v>684</v>
@@ -8988,7 +8928,7 @@
     </row>
     <row r="341" spans="1:4" ht="15.95">
       <c r="A341" s="2">
-        <v>881</v>
+        <v>899</v>
       </c>
       <c r="B341" s="2" t="s">
         <v>686</v>
@@ -9002,7 +8942,7 @@
     </row>
     <row r="342" spans="1:4" ht="15.95">
       <c r="A342" s="2">
-        <v>885</v>
+        <v>900</v>
       </c>
       <c r="B342" s="2" t="s">
         <v>688</v>
@@ -9016,7 +8956,7 @@
     </row>
     <row r="343" spans="1:4" ht="15.95">
       <c r="A343" s="2">
-        <v>888</v>
+        <v>908</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>690</v>
@@ -9029,9 +8969,6 @@
       </c>
     </row>
     <row r="344" spans="1:4" ht="15.95">
-      <c r="A344" s="2">
-        <v>891</v>
-      </c>
       <c r="B344" s="2" t="s">
         <v>692</v>
       </c>
@@ -9044,7 +8981,7 @@
     </row>
     <row r="345" spans="1:4" ht="15.95">
       <c r="A345" s="2">
-        <v>892</v>
+        <v>909</v>
       </c>
       <c r="B345" s="2" t="s">
         <v>694</v>
@@ -9058,13 +8995,13 @@
     </row>
     <row r="346" spans="1:4" ht="15.95">
       <c r="A346" s="2">
-        <v>899</v>
+        <v>911</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>696</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>697</v>
@@ -9072,13 +9009,13 @@
     </row>
     <row r="347" spans="1:4" ht="15.95">
       <c r="A347" s="2">
-        <v>900</v>
+        <v>912</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>698</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>699</v>
@@ -9086,19 +9023,22 @@
     </row>
     <row r="348" spans="1:4" ht="15.95">
       <c r="A348" s="2">
-        <v>908</v>
+        <v>922</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>700</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="15.95">
+      <c r="A349" s="2">
+        <v>936</v>
+      </c>
       <c r="B349" s="2" t="s">
         <v>702</v>
       </c>
@@ -9111,7 +9051,7 @@
     </row>
     <row r="350" spans="1:4" ht="15.95">
       <c r="A350" s="2">
-        <v>909</v>
+        <v>940</v>
       </c>
       <c r="B350" s="2" t="s">
         <v>704</v>
@@ -9125,13 +9065,13 @@
     </row>
     <row r="351" spans="1:4" ht="15.95">
       <c r="A351" s="2">
-        <v>911</v>
+        <v>941</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>706</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>707</v>
@@ -9139,13 +9079,13 @@
     </row>
     <row r="352" spans="1:4" ht="15.95">
       <c r="A352" s="2">
-        <v>912</v>
+        <v>943</v>
       </c>
       <c r="B352" s="2" t="s">
         <v>708</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>709</v>
@@ -9153,13 +9093,13 @@
     </row>
     <row r="353" spans="1:4" ht="15.95">
       <c r="A353" s="2">
-        <v>922</v>
+        <v>972</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>710</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>711</v>
@@ -9167,7 +9107,7 @@
     </row>
     <row r="354" spans="1:4" ht="15.95">
       <c r="A354" s="2">
-        <v>936</v>
+        <v>973</v>
       </c>
       <c r="B354" s="2" t="s">
         <v>712</v>
@@ -9181,7 +9121,7 @@
     </row>
     <row r="355" spans="1:4" ht="15.95">
       <c r="A355" s="2">
-        <v>940</v>
+        <v>996</v>
       </c>
       <c r="B355" s="2" t="s">
         <v>714</v>
@@ -9195,7 +9135,7 @@
     </row>
     <row r="356" spans="1:4" ht="15.95">
       <c r="A356" s="2">
-        <v>941</v>
+        <v>999</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>716</v>
@@ -9209,7 +9149,7 @@
     </row>
     <row r="357" spans="1:4" ht="15.95">
       <c r="A357" s="2">
-        <v>943</v>
+        <v>1000</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>718</v>
@@ -9223,7 +9163,7 @@
     </row>
     <row r="358" spans="1:4" ht="15.95">
       <c r="A358" s="2">
-        <v>972</v>
+        <v>1005</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>720</v>
@@ -9237,7 +9177,7 @@
     </row>
     <row r="359" spans="1:4" ht="15.95">
       <c r="A359" s="2">
-        <v>973</v>
+        <v>1006</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>722</v>
@@ -9251,7 +9191,7 @@
     </row>
     <row r="360" spans="1:4" ht="15.95">
       <c r="A360" s="2">
-        <v>996</v>
+        <v>1009</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>724</v>
@@ -9265,7 +9205,7 @@
     </row>
     <row r="361" spans="1:4" ht="15.95">
       <c r="A361" s="2">
-        <v>999</v>
+        <v>1012</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>726</v>
@@ -9279,7 +9219,7 @@
     </row>
     <row r="362" spans="1:4" ht="15.95">
       <c r="A362" s="2">
-        <v>1000</v>
+        <v>1016</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>728</v>
@@ -9293,7 +9233,7 @@
     </row>
     <row r="363" spans="1:4" ht="15.95">
       <c r="A363" s="2">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>730</v>
@@ -9307,7 +9247,7 @@
     </row>
     <row r="364" spans="1:4" ht="15.95">
       <c r="A364" s="2">
-        <v>1006</v>
+        <v>1019</v>
       </c>
       <c r="B364" s="2" t="s">
         <v>732</v>
@@ -9321,7 +9261,7 @@
     </row>
     <row r="365" spans="1:4" ht="15.95">
       <c r="A365" s="2">
-        <v>1009</v>
+        <v>1023</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>734</v>
@@ -9335,7 +9275,7 @@
     </row>
     <row r="366" spans="1:4" ht="15.95">
       <c r="A366" s="2">
-        <v>1012</v>
+        <v>1028</v>
       </c>
       <c r="B366" s="2" t="s">
         <v>736</v>
@@ -9349,7 +9289,7 @@
     </row>
     <row r="367" spans="1:4" ht="15.95">
       <c r="A367" s="2">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="B367" s="2" t="s">
         <v>738</v>
@@ -9363,7 +9303,7 @@
     </row>
     <row r="368" spans="1:4" ht="15.95">
       <c r="A368" s="2">
-        <v>1017</v>
+        <v>1036</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>740</v>
@@ -9377,7 +9317,7 @@
     </row>
     <row r="369" spans="1:4" ht="15.95">
       <c r="A369" s="2">
-        <v>1019</v>
+        <v>1040</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>742</v>
@@ -9391,7 +9331,7 @@
     </row>
     <row r="370" spans="1:4" ht="15.95">
       <c r="A370" s="2">
-        <v>1023</v>
+        <v>1068</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>744</v>
@@ -9405,7 +9345,7 @@
     </row>
     <row r="371" spans="1:4" ht="15.95">
       <c r="A371" s="2">
-        <v>1028</v>
+        <v>1070</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>746</v>
@@ -9419,7 +9359,7 @@
     </row>
     <row r="372" spans="1:4" ht="15.95">
       <c r="A372" s="2">
-        <v>1032</v>
+        <v>1075</v>
       </c>
       <c r="B372" s="2" t="s">
         <v>748</v>
@@ -9433,7 +9373,7 @@
     </row>
     <row r="373" spans="1:4" ht="15.95">
       <c r="A373" s="2">
-        <v>1036</v>
+        <v>1076</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>750</v>
@@ -9447,7 +9387,7 @@
     </row>
     <row r="374" spans="1:4" ht="15.95">
       <c r="A374" s="2">
-        <v>1040</v>
+        <v>1077</v>
       </c>
       <c r="B374" s="2" t="s">
         <v>752</v>
@@ -9461,7 +9401,7 @@
     </row>
     <row r="375" spans="1:4" ht="15.95">
       <c r="A375" s="2">
-        <v>1068</v>
+        <v>1081</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>754</v>
@@ -9475,7 +9415,7 @@
     </row>
     <row r="376" spans="1:4" ht="15.95">
       <c r="A376" s="2">
-        <v>1070</v>
+        <v>1084</v>
       </c>
       <c r="B376" s="2" t="s">
         <v>756</v>
@@ -9489,7 +9429,7 @@
     </row>
     <row r="377" spans="1:4" ht="15.95">
       <c r="A377" s="2">
-        <v>1075</v>
+        <v>1086</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>758</v>
@@ -9503,7 +9443,7 @@
     </row>
     <row r="378" spans="1:4" ht="15.95">
       <c r="A378" s="2">
-        <v>1076</v>
+        <v>1087</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>760</v>
@@ -9517,7 +9457,7 @@
     </row>
     <row r="379" spans="1:4" ht="15.95">
       <c r="A379" s="2">
-        <v>1077</v>
+        <v>1092</v>
       </c>
       <c r="B379" s="2" t="s">
         <v>762</v>
@@ -9531,7 +9471,7 @@
     </row>
     <row r="380" spans="1:4" ht="15.95">
       <c r="A380" s="2">
-        <v>1081</v>
+        <v>1096</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>764</v>
@@ -9544,9 +9484,6 @@
       </c>
     </row>
     <row r="381" spans="1:4" ht="15.95">
-      <c r="A381" s="2">
-        <v>1084</v>
-      </c>
       <c r="B381" s="2" t="s">
         <v>766</v>
       </c>
@@ -9559,7 +9496,7 @@
     </row>
     <row r="382" spans="1:4" ht="15.95">
       <c r="A382" s="2">
-        <v>1086</v>
+        <v>1097</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>768</v>
@@ -9573,7 +9510,7 @@
     </row>
     <row r="383" spans="1:4" ht="15.95">
       <c r="A383" s="2">
-        <v>1087</v>
+        <v>1103</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>770</v>
@@ -9587,7 +9524,7 @@
     </row>
     <row r="384" spans="1:4" ht="15.95">
       <c r="A384" s="2">
-        <v>1092</v>
+        <v>1110</v>
       </c>
       <c r="B384" s="2" t="s">
         <v>772</v>
@@ -9601,7 +9538,7 @@
     </row>
     <row r="385" spans="1:4" ht="15.95">
       <c r="A385" s="2">
-        <v>1096</v>
+        <v>1112</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>774</v>
@@ -9614,6 +9551,9 @@
       </c>
     </row>
     <row r="386" spans="1:4" ht="15.95">
+      <c r="A386" s="2">
+        <v>1123</v>
+      </c>
       <c r="B386" s="2" t="s">
         <v>776</v>
       </c>
@@ -9626,7 +9566,7 @@
     </row>
     <row r="387" spans="1:4" ht="15.95">
       <c r="A387" s="2">
-        <v>1097</v>
+        <v>1136</v>
       </c>
       <c r="B387" s="2" t="s">
         <v>778</v>
@@ -9640,7 +9580,7 @@
     </row>
     <row r="388" spans="1:4" ht="15.95">
       <c r="A388" s="2">
-        <v>1103</v>
+        <v>1137</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>780</v>
@@ -9654,7 +9594,7 @@
     </row>
     <row r="389" spans="1:4" ht="15.95">
       <c r="A389" s="2">
-        <v>1110</v>
+        <v>1138</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>782</v>
@@ -9668,7 +9608,7 @@
     </row>
     <row r="390" spans="1:4" ht="15.95">
       <c r="A390" s="2">
-        <v>1112</v>
+        <v>1151</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>784</v>
@@ -9682,7 +9622,7 @@
     </row>
     <row r="391" spans="1:4" ht="15.95">
       <c r="A391" s="2">
-        <v>1123</v>
+        <v>1152</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>786</v>
@@ -9696,7 +9636,7 @@
     </row>
     <row r="392" spans="1:4" ht="15.95">
       <c r="A392" s="2">
-        <v>1136</v>
+        <v>1190</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>788</v>
@@ -9709,9 +9649,6 @@
       </c>
     </row>
     <row r="393" spans="1:4" ht="15.95">
-      <c r="A393" s="2">
-        <v>1137</v>
-      </c>
       <c r="B393" s="2" t="s">
         <v>790</v>
       </c>
@@ -9723,9 +9660,6 @@
       </c>
     </row>
     <row r="394" spans="1:4" ht="15.95">
-      <c r="A394" s="2">
-        <v>1138</v>
-      </c>
       <c r="B394" s="2" t="s">
         <v>792</v>
       </c>
@@ -9737,75 +9671,81 @@
       </c>
     </row>
     <row r="395" spans="1:4" ht="15.95">
-      <c r="A395" s="2">
-        <v>1151</v>
-      </c>
       <c r="B395" s="2" t="s">
         <v>794</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>6</v>
+        <v>795</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="15.95">
       <c r="A396" s="2">
-        <v>1152</v>
+        <v>1198</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="15.95">
       <c r="A397" s="2">
-        <v>1190</v>
+        <v>1214</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="15.95">
+      <c r="A398" s="2">
+        <v>1243</v>
+      </c>
       <c r="B398" s="2" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="15.95">
+      <c r="A399" s="2">
+        <v>1253</v>
+      </c>
       <c r="B399" s="2" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="15.95">
+      <c r="A400" s="2">
+        <v>1270</v>
+      </c>
       <c r="B400" s="2" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>805</v>
+        <v>6</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>806</v>
@@ -9813,7 +9753,7 @@
     </row>
     <row r="401" spans="1:4" ht="15.95">
       <c r="A401" s="2">
-        <v>1198</v>
+        <v>1271</v>
       </c>
       <c r="B401" s="2" t="s">
         <v>807</v>
@@ -9827,7 +9767,7 @@
     </row>
     <row r="402" spans="1:4" ht="15.95">
       <c r="A402" s="2">
-        <v>1214</v>
+        <v>1273</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>809</v>
@@ -9841,7 +9781,7 @@
     </row>
     <row r="403" spans="1:4" ht="15.95">
       <c r="A403" s="2">
-        <v>1243</v>
+        <v>1275</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>811</v>
@@ -9855,7 +9795,7 @@
     </row>
     <row r="404" spans="1:4" ht="15.95">
       <c r="A404" s="2">
-        <v>1253</v>
+        <v>1278</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>813</v>
@@ -9869,7 +9809,7 @@
     </row>
     <row r="405" spans="1:4" ht="15.95">
       <c r="A405" s="2">
-        <v>1270</v>
+        <v>1279</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>815</v>
@@ -9883,7 +9823,7 @@
     </row>
     <row r="406" spans="1:4" ht="15.95">
       <c r="A406" s="2">
-        <v>1271</v>
+        <v>1281</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>817</v>
@@ -9897,7 +9837,7 @@
     </row>
     <row r="407" spans="1:4" ht="15.95">
       <c r="A407" s="2">
-        <v>1273</v>
+        <v>1282</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>819</v>
@@ -9911,7 +9851,7 @@
     </row>
     <row r="408" spans="1:4" ht="15.95">
       <c r="A408" s="2">
-        <v>1275</v>
+        <v>1283</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>821</v>
@@ -9925,7 +9865,7 @@
     </row>
     <row r="409" spans="1:4" ht="15.95">
       <c r="A409" s="2">
-        <v>1278</v>
+        <v>1284</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>823</v>
@@ -9939,7 +9879,7 @@
     </row>
     <row r="410" spans="1:4" ht="15.95">
       <c r="A410" s="2">
-        <v>1279</v>
+        <v>1285</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>825</v>
@@ -9953,7 +9893,7 @@
     </row>
     <row r="411" spans="1:4" ht="15.95">
       <c r="A411" s="2">
-        <v>1281</v>
+        <v>1286</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>827</v>
@@ -9967,7 +9907,7 @@
     </row>
     <row r="412" spans="1:4" ht="15.95">
       <c r="A412" s="2">
-        <v>1282</v>
+        <v>1287</v>
       </c>
       <c r="B412" s="2" t="s">
         <v>829</v>
@@ -9981,7 +9921,7 @@
     </row>
     <row r="413" spans="1:4" ht="15.95">
       <c r="A413" s="2">
-        <v>1283</v>
+        <v>1288</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>831</v>
@@ -9995,7 +9935,7 @@
     </row>
     <row r="414" spans="1:4" ht="15.95">
       <c r="A414" s="2">
-        <v>1284</v>
+        <v>1289</v>
       </c>
       <c r="B414" s="2" t="s">
         <v>833</v>
@@ -10009,7 +9949,7 @@
     </row>
     <row r="415" spans="1:4" ht="15.95">
       <c r="A415" s="2">
-        <v>1285</v>
+        <v>1291</v>
       </c>
       <c r="B415" s="2" t="s">
         <v>835</v>
@@ -10023,7 +9963,7 @@
     </row>
     <row r="416" spans="1:4" ht="15.95">
       <c r="A416" s="2">
-        <v>1286</v>
+        <v>1293</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>837</v>
@@ -10037,7 +9977,7 @@
     </row>
     <row r="417" spans="1:4" ht="15.95">
       <c r="A417" s="2">
-        <v>1287</v>
+        <v>1296</v>
       </c>
       <c r="B417" s="2" t="s">
         <v>839</v>
@@ -10051,7 +9991,7 @@
     </row>
     <row r="418" spans="1:4" ht="15.95">
       <c r="A418" s="2">
-        <v>1288</v>
+        <v>1297</v>
       </c>
       <c r="B418" s="2" t="s">
         <v>841</v>
@@ -10065,7 +10005,7 @@
     </row>
     <row r="419" spans="1:4" ht="15.95">
       <c r="A419" s="2">
-        <v>1289</v>
+        <v>1299</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>843</v>
@@ -10079,7 +10019,7 @@
     </row>
     <row r="420" spans="1:4" ht="15.95">
       <c r="A420" s="2">
-        <v>1291</v>
+        <v>1302</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>845</v>
@@ -10093,7 +10033,7 @@
     </row>
     <row r="421" spans="1:4" ht="15.95">
       <c r="A421" s="2">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>847</v>
@@ -10107,7 +10047,7 @@
     </row>
     <row r="422" spans="1:4" ht="15.95">
       <c r="A422" s="2">
-        <v>1296</v>
+        <v>1306</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>849</v>
@@ -10121,7 +10061,7 @@
     </row>
     <row r="423" spans="1:4" ht="15.95">
       <c r="A423" s="2">
-        <v>1297</v>
+        <v>1307</v>
       </c>
       <c r="B423" s="2" t="s">
         <v>851</v>
@@ -10135,7 +10075,7 @@
     </row>
     <row r="424" spans="1:4" ht="15.95">
       <c r="A424" s="2">
-        <v>1299</v>
+        <v>1317</v>
       </c>
       <c r="B424" s="2" t="s">
         <v>853</v>
@@ -10149,7 +10089,7 @@
     </row>
     <row r="425" spans="1:4" ht="15.95">
       <c r="A425" s="2">
-        <v>1302</v>
+        <v>1319</v>
       </c>
       <c r="B425" s="2" t="s">
         <v>855</v>
@@ -10163,7 +10103,7 @@
     </row>
     <row r="426" spans="1:4" ht="15.95">
       <c r="A426" s="2">
-        <v>1303</v>
+        <v>1320</v>
       </c>
       <c r="B426" s="2" t="s">
         <v>857</v>
@@ -10177,7 +10117,7 @@
     </row>
     <row r="427" spans="1:4" ht="15.95">
       <c r="A427" s="2">
-        <v>1306</v>
+        <v>1321</v>
       </c>
       <c r="B427" s="2" t="s">
         <v>859</v>
@@ -10191,7 +10131,7 @@
     </row>
     <row r="428" spans="1:4" ht="15.95">
       <c r="A428" s="2">
-        <v>1307</v>
+        <v>1326</v>
       </c>
       <c r="B428" s="2" t="s">
         <v>861</v>
@@ -10205,13 +10145,13 @@
     </row>
     <row r="429" spans="1:4" ht="15.95">
       <c r="A429" s="2">
-        <v>1317</v>
+        <v>1331</v>
       </c>
       <c r="B429" s="2" t="s">
         <v>863</v>
       </c>
       <c r="C429" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D429" s="2" t="s">
         <v>864</v>
@@ -10219,13 +10159,13 @@
     </row>
     <row r="430" spans="1:4" ht="15.95">
       <c r="A430" s="2">
-        <v>1319</v>
+        <v>1376</v>
       </c>
       <c r="B430" s="2" t="s">
         <v>865</v>
       </c>
       <c r="C430" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D430" s="2" t="s">
         <v>866</v>
@@ -10233,13 +10173,13 @@
     </row>
     <row r="431" spans="1:4" ht="15.95">
       <c r="A431" s="2">
-        <v>1320</v>
+        <v>1502</v>
       </c>
       <c r="B431" s="2" t="s">
         <v>867</v>
       </c>
       <c r="C431" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D431" s="2" t="s">
         <v>868</v>
@@ -10247,7 +10187,7 @@
     </row>
     <row r="432" spans="1:4" ht="15.95">
       <c r="A432" s="2">
-        <v>1321</v>
+        <v>1503</v>
       </c>
       <c r="B432" s="2" t="s">
         <v>869</v>
@@ -10261,7 +10201,7 @@
     </row>
     <row r="433" spans="1:4" ht="15.95">
       <c r="A433" s="2">
-        <v>1326</v>
+        <v>2450</v>
       </c>
       <c r="B433" s="2" t="s">
         <v>871</v>
@@ -10275,27 +10215,24 @@
     </row>
     <row r="434" spans="1:4" ht="15.95">
       <c r="A434" s="2">
-        <v>1331</v>
+        <v>9000</v>
       </c>
       <c r="B434" s="2" t="s">
         <v>873</v>
       </c>
       <c r="C434" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D434" s="2" t="s">
         <v>874</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="15.95">
-      <c r="A435" s="2">
-        <v>1376</v>
-      </c>
       <c r="B435" s="2" t="s">
         <v>875</v>
       </c>
       <c r="C435" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D435" s="2" t="s">
         <v>876</v>
@@ -10303,13 +10240,13 @@
     </row>
     <row r="436" spans="1:4" ht="15.95">
       <c r="A436" s="2">
-        <v>1502</v>
+        <v>9001</v>
       </c>
       <c r="B436" s="2" t="s">
         <v>877</v>
       </c>
       <c r="C436" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D436" s="2" t="s">
         <v>878</v>
@@ -10317,7 +10254,7 @@
     </row>
     <row r="437" spans="1:4" ht="15.95">
       <c r="A437" s="2">
-        <v>1503</v>
+        <v>9002</v>
       </c>
       <c r="B437" s="2" t="s">
         <v>879</v>
@@ -10331,7 +10268,7 @@
     </row>
     <row r="438" spans="1:4" ht="15.95">
       <c r="A438" s="2">
-        <v>2450</v>
+        <v>9003</v>
       </c>
       <c r="B438" s="2" t="s">
         <v>881</v>
@@ -10345,7 +10282,7 @@
     </row>
     <row r="439" spans="1:4" ht="15.95">
       <c r="A439" s="2">
-        <v>9000</v>
+        <v>9004</v>
       </c>
       <c r="B439" s="2" t="s">
         <v>883</v>
@@ -10358,6 +10295,9 @@
       </c>
     </row>
     <row r="440" spans="1:4" ht="15.95">
+      <c r="A440" s="2">
+        <v>9005</v>
+      </c>
       <c r="B440" s="2" t="s">
         <v>885</v>
       </c>
@@ -10370,7 +10310,7 @@
     </row>
     <row r="441" spans="1:4" ht="15.95">
       <c r="A441" s="2">
-        <v>9001</v>
+        <v>9006</v>
       </c>
       <c r="B441" s="2" t="s">
         <v>887</v>
@@ -10384,13 +10324,13 @@
     </row>
     <row r="442" spans="1:4" ht="15.95">
       <c r="A442" s="2">
-        <v>9002</v>
+        <v>9007</v>
       </c>
       <c r="B442" s="2" t="s">
         <v>889</v>
       </c>
       <c r="C442" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D442" s="2" t="s">
         <v>890</v>
@@ -10398,13 +10338,13 @@
     </row>
     <row r="443" spans="1:4" ht="15.95">
       <c r="A443" s="2">
-        <v>9003</v>
+        <v>9008</v>
       </c>
       <c r="B443" s="2" t="s">
         <v>891</v>
       </c>
       <c r="C443" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D443" s="2" t="s">
         <v>892</v>
@@ -10412,106 +10352,94 @@
     </row>
     <row r="444" spans="1:4" ht="15.95">
       <c r="A444" s="2">
-        <v>9004</v>
+        <v>9009</v>
       </c>
       <c r="B444" s="2" t="s">
         <v>893</v>
       </c>
       <c r="C444" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D444" s="2" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="15.95">
+    <row r="445" spans="1:4" s="4" customFormat="1" ht="15.95">
       <c r="A445" s="2">
-        <v>9005</v>
+        <v>9010</v>
       </c>
       <c r="B445" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A446" s="2">
+        <v>9011</v>
+      </c>
+      <c r="B446" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C445" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D445" s="2" t="s">
+      <c r="C446" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" s="2" t="s">
         <v>896</v>
-      </c>
-    </row>
-    <row r="446" spans="1:4" ht="15.95">
-      <c r="A446" s="2">
-        <v>9006</v>
-      </c>
-      <c r="B446" s="2" t="s">
-        <v>897</v>
-      </c>
-      <c r="C446" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D446" s="2" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="15.95">
       <c r="A447" s="2">
-        <v>9007</v>
+        <v>528</v>
       </c>
       <c r="B447" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" ht="15.95">
+      <c r="B448" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="C447" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D447" s="2" t="s">
+      <c r="C448" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" s="2" t="s">
         <v>900</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="15.95">
-      <c r="A448" s="2">
-        <v>9008</v>
-      </c>
-      <c r="B448" s="2" t="s">
+    <row r="449" spans="1:4" ht="15.95">
+      <c r="B449" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C448" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D448" s="2" t="s">
+      <c r="C449" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" s="2" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="15.95">
-      <c r="A449" s="2">
-        <v>9009</v>
-      </c>
-      <c r="B449" s="2" t="s">
+    <row r="450" spans="1:4" ht="15.95">
+      <c r="B450" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="C449" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D449" s="2" t="s">
+      <c r="C450" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" s="2" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="450" spans="1:4" s="4" customFormat="1" ht="15.95">
-      <c r="A450" s="2">
-        <v>9010</v>
-      </c>
-      <c r="B450" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C450" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D450" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="451" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A451" s="2">
-        <v>9011</v>
-      </c>
+    <row r="451" spans="1:4" ht="15.95">
       <c r="B451" s="2" t="s">
         <v>905</v>
       </c>
@@ -10523,9 +10451,6 @@
       </c>
     </row>
     <row r="452" spans="1:4" ht="15.95">
-      <c r="A452" s="2">
-        <v>528</v>
-      </c>
       <c r="B452" s="2" t="s">
         <v>907</v>
       </c>
@@ -10548,6 +10473,9 @@
       </c>
     </row>
     <row r="454" spans="1:4" ht="15.95">
+      <c r="A454" s="2">
+        <v>183</v>
+      </c>
       <c r="B454" s="2" t="s">
         <v>911</v>
       </c>
@@ -10559,6 +10487,9 @@
       </c>
     </row>
     <row r="455" spans="1:4" ht="15.95">
+      <c r="A455" s="2">
+        <v>184</v>
+      </c>
       <c r="B455" s="2" t="s">
         <v>913</v>
       </c>
@@ -10570,6 +10501,9 @@
       </c>
     </row>
     <row r="456" spans="1:4" ht="15.95">
+      <c r="A456" s="2">
+        <v>185</v>
+      </c>
       <c r="B456" s="2" t="s">
         <v>915</v>
       </c>
@@ -10581,6 +10515,9 @@
       </c>
     </row>
     <row r="457" spans="1:4" ht="15.95">
+      <c r="A457" s="2">
+        <v>186</v>
+      </c>
       <c r="B457" s="2" t="s">
         <v>917</v>
       </c>
@@ -10592,6 +10529,9 @@
       </c>
     </row>
     <row r="458" spans="1:4" ht="15.95">
+      <c r="A458" s="2">
+        <v>187</v>
+      </c>
       <c r="B458" s="2" t="s">
         <v>919</v>
       </c>
@@ -10614,9 +10554,6 @@
       </c>
     </row>
     <row r="460" spans="1:4" ht="15.95">
-      <c r="A460" s="2">
-        <v>183</v>
-      </c>
       <c r="B460" s="2" t="s">
         <v>923</v>
       </c>
@@ -10628,9 +10565,6 @@
       </c>
     </row>
     <row r="461" spans="1:4" ht="15.95">
-      <c r="A461" s="2">
-        <v>184</v>
-      </c>
       <c r="B461" s="2" t="s">
         <v>925</v>
       </c>
@@ -10642,9 +10576,6 @@
       </c>
     </row>
     <row r="462" spans="1:4" ht="15.95">
-      <c r="A462" s="2">
-        <v>185</v>
-      </c>
       <c r="B462" s="2" t="s">
         <v>927</v>
       </c>
@@ -10656,9 +10587,6 @@
       </c>
     </row>
     <row r="463" spans="1:4" ht="15.95">
-      <c r="A463" s="2">
-        <v>186</v>
-      </c>
       <c r="B463" s="2" t="s">
         <v>929</v>
       </c>
@@ -10670,9 +10598,6 @@
       </c>
     </row>
     <row r="464" spans="1:4" ht="15.95">
-      <c r="A464" s="2">
-        <v>187</v>
-      </c>
       <c r="B464" s="2" t="s">
         <v>931</v>
       </c>
@@ -11073,7 +10998,7 @@
         <v>1003</v>
       </c>
       <c r="C500" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D500" s="2" t="s">
         <v>1004</v>
@@ -11161,7 +11086,7 @@
         <v>1019</v>
       </c>
       <c r="C508" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D508" s="2" t="s">
         <v>1020</v>
@@ -11436,7 +11361,7 @@
         <v>1069</v>
       </c>
       <c r="C533" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D533" s="2" t="s">
         <v>1070</v>
@@ -11447,7 +11372,7 @@
         <v>1071</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D534" s="2" t="s">
         <v>1072</v>
@@ -11458,7 +11383,7 @@
         <v>1073</v>
       </c>
       <c r="C535" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D535" s="2" t="s">
         <v>1074</v>
@@ -11524,7 +11449,7 @@
         <v>1085</v>
       </c>
       <c r="C541" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D541" s="2" t="s">
         <v>1086</v>
@@ -11557,7 +11482,7 @@
         <v>1091</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D544" s="2" t="s">
         <v>1092</v>
@@ -11568,13 +11493,13 @@
         <v>1093</v>
       </c>
       <c r="C545" s="2" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="D545" s="2" t="s">
         <v>1094</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="15.95">
+    <row r="546" spans="1:4" ht="15.75" customHeight="1">
       <c r="B546" s="2" t="s">
         <v>1095</v>
       </c>
@@ -11586,6 +11511,9 @@
       </c>
     </row>
     <row r="547" spans="1:4" ht="15.95">
+      <c r="A547" s="2">
+        <v>148</v>
+      </c>
       <c r="B547" s="2" t="s">
         <v>1097</v>
       </c>
@@ -11601,7 +11529,7 @@
         <v>1099</v>
       </c>
       <c r="C548" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D548" s="2" t="s">
         <v>1100</v>
@@ -11612,57 +11540,72 @@
         <v>1101</v>
       </c>
       <c r="C549" s="2" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="D549" s="2" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="15.95">
+    <row r="550" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A550" s="2">
+        <v>1554</v>
+      </c>
       <c r="B550" s="2" t="s">
         <v>1103</v>
       </c>
       <c r="C550" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D550" s="2" t="s">
         <v>1104</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="15.95">
+    <row r="551" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A551" s="2">
+        <v>1555</v>
+      </c>
       <c r="B551" s="2" t="s">
         <v>1105</v>
       </c>
       <c r="C551" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D551" s="2" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="15.95">
+    <row r="552" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A552" s="2">
+        <v>1556</v>
+      </c>
       <c r="B552" s="2" t="s">
         <v>1107</v>
       </c>
       <c r="C552" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D552" s="2" t="s">
         <v>1108</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="15.95">
+    <row r="553" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A553" s="2">
+        <v>1557</v>
+      </c>
       <c r="B553" s="2" t="s">
         <v>1109</v>
       </c>
       <c r="C553" s="2" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="D553" s="2" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A554" s="2">
+        <v>1558</v>
+      </c>
       <c r="B554" s="2" t="s">
         <v>1111</v>
       </c>
@@ -11673,9 +11616,9 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="15.95">
+    <row r="555" spans="1:4" ht="15.75" customHeight="1">
       <c r="A555" s="2">
-        <v>148</v>
+        <v>1559</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>1113</v>
@@ -11687,23 +11630,26 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="15.95">
+    <row r="556" spans="1:4" ht="15.75" customHeight="1">
       <c r="B556" s="2" t="s">
         <v>1115</v>
       </c>
       <c r="C556" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D556" s="2" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="15.95">
+    <row r="557" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A557" s="2">
+        <v>1560</v>
+      </c>
       <c r="B557" s="2" t="s">
         <v>1117</v>
       </c>
       <c r="C557" s="2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D557" s="2" t="s">
         <v>1118</v>
@@ -11711,7 +11657,7 @@
     </row>
     <row r="558" spans="1:4" ht="15.75" customHeight="1">
       <c r="A558" s="2">
-        <v>1554</v>
+        <v>1561</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>1119</v>
@@ -11725,7 +11671,7 @@
     </row>
     <row r="559" spans="1:4" ht="15.75" customHeight="1">
       <c r="A559" s="2">
-        <v>1555</v>
+        <v>1562</v>
       </c>
       <c r="B559" s="2" t="s">
         <v>1121</v>
@@ -11739,7 +11685,7 @@
     </row>
     <row r="560" spans="1:4" ht="15.75" customHeight="1">
       <c r="A560" s="2">
-        <v>1556</v>
+        <v>1563</v>
       </c>
       <c r="B560" s="2" t="s">
         <v>1123</v>
@@ -11753,7 +11699,7 @@
     </row>
     <row r="561" spans="1:4" ht="15.75" customHeight="1">
       <c r="A561" s="2">
-        <v>1557</v>
+        <v>1564</v>
       </c>
       <c r="B561" s="2" t="s">
         <v>1125</v>
@@ -11766,9 +11712,6 @@
       </c>
     </row>
     <row r="562" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A562" s="2">
-        <v>1558</v>
-      </c>
       <c r="B562" s="2" t="s">
         <v>1127</v>
       </c>
@@ -11780,9 +11723,6 @@
       </c>
     </row>
     <row r="563" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A563" s="2">
-        <v>1559</v>
-      </c>
       <c r="B563" s="2" t="s">
         <v>1129</v>
       </c>
@@ -11805,9 +11745,6 @@
       </c>
     </row>
     <row r="565" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A565" s="2">
-        <v>1560</v>
-      </c>
       <c r="B565" s="2" t="s">
         <v>1133</v>
       </c>
@@ -11819,9 +11756,6 @@
       </c>
     </row>
     <row r="566" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A566" s="2">
-        <v>1561</v>
-      </c>
       <c r="B566" s="2" t="s">
         <v>1135</v>
       </c>
@@ -11833,9 +11767,6 @@
       </c>
     </row>
     <row r="567" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A567" s="2">
-        <v>1562</v>
-      </c>
       <c r="B567" s="2" t="s">
         <v>1137</v>
       </c>
@@ -11847,9 +11778,6 @@
       </c>
     </row>
     <row r="568" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A568" s="2">
-        <v>1563</v>
-      </c>
       <c r="B568" s="2" t="s">
         <v>1139</v>
       </c>
@@ -11861,9 +11789,6 @@
       </c>
     </row>
     <row r="569" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A569" s="2">
-        <v>1564</v>
-      </c>
       <c r="B569" s="2" t="s">
         <v>1141</v>
       </c>
@@ -12171,18 +12096,18 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="597" spans="2:5" ht="15.75" customHeight="1">
-      <c r="B597" s="2" t="s">
+    <row r="597" spans="2:5" ht="68.099999999999994">
+      <c r="B597" s="5" t="s">
         <v>1197</v>
       </c>
       <c r="C597" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D597" s="2" t="s">
+      <c r="D597" s="5" t="s">
         <v>1198</v>
       </c>
     </row>
-    <row r="598" spans="2:5" ht="15.75" customHeight="1">
+    <row r="598" spans="2:5" ht="15.95">
       <c r="B598" s="2" t="s">
         <v>1199</v>
       </c>
@@ -12193,7 +12118,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="599" spans="2:5" ht="15.75" customHeight="1">
+    <row r="599" spans="2:5" ht="15.95">
       <c r="B599" s="2" t="s">
         <v>1201</v>
       </c>
@@ -12270,18 +12195,18 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="606" spans="2:5" ht="68.099999999999994">
-      <c r="B606" s="5" t="s">
+    <row r="606" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B606" s="2" t="s">
         <v>1215</v>
       </c>
       <c r="C606" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D606" s="5" t="s">
+      <c r="D606" s="2" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="607" spans="2:5" ht="15.95">
+    <row r="607" spans="2:5" ht="15.75" customHeight="1">
       <c r="B607" s="2" t="s">
         <v>1217</v>
       </c>
@@ -12291,165 +12216,60 @@
       <c r="D607" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="E607" s="2" t="s">
+    </row>
+    <row r="608" spans="2:5" ht="15.75" customHeight="1">
+      <c r="B608" s="2" t="s">
         <v>1219</v>
       </c>
-    </row>
-    <row r="608" spans="2:5" ht="15.95">
-      <c r="B608" s="2" t="s">
+      <c r="C608" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608" s="2" t="s">
         <v>1220</v>
-      </c>
-      <c r="C608" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D608" s="2" t="s">
-        <v>1221</v>
-      </c>
-      <c r="E608" s="2" t="s">
-        <v>1222</v>
       </c>
     </row>
     <row r="609" spans="2:4" ht="15.75" customHeight="1">
       <c r="B609" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C609" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D609" s="2" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="610" spans="2:4" ht="15.75" customHeight="1">
       <c r="B610" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="C610" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D610" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="611" spans="2:4" ht="15.75" customHeight="1">
       <c r="B611" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="C611" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D611" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="612" spans="2:4" ht="15.75" customHeight="1">
       <c r="B612" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="C612" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D612" s="2" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="613" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B613" s="2" t="s">
-        <v>1231</v>
-      </c>
-      <c r="C613" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D613" s="2" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="614" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B614" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C614" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D614" s="2" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="615" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B615" s="2" t="s">
-        <v>1235</v>
-      </c>
-      <c r="C615" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D615" s="2" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="616" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B616" s="2" t="s">
-        <v>1237</v>
-      </c>
-      <c r="C616" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D616" s="2" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="617" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B617" s="2" t="s">
-        <v>1239</v>
-      </c>
-      <c r="C617" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D617" s="2" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="618" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B618" s="2" t="s">
-        <v>1241</v>
-      </c>
-      <c r="C618" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D618" s="2" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="619" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B619" s="2" t="s">
-        <v>1243</v>
-      </c>
-      <c r="C619" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D619" s="2" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="620" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B620" s="2" t="s">
-        <v>1245</v>
-      </c>
-      <c r="C620" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D620" s="2" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="621" spans="2:4" ht="15.75" customHeight="1">
-      <c r="B621" s="2" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C621" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D621" s="2" t="s">
-        <v>1248</v>
+        <v>1228</v>
       </c>
     </row>
   </sheetData>
@@ -12719,15 +12539,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="fef4af80-67d0-434d-aa7c-17eed15b0840">
@@ -12738,16 +12549,25 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31978054-9D65-431E-9F8A-409B056C4C23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74BB30E9-A031-4995-AED1-72995826748A}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2787CFFA-3460-4A04-BA0A-9FECDEAA6229}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E49D155-2C11-4885-ACD3-E6D3BF89105E}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
